--- a/NewCo/df_rev_mth.xlsx
+++ b/NewCo/df_rev_mth.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -777,8 +777,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="E55:O62" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="D52:N59" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="9">
@@ -901,8 +901,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="E43:O50" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="D41:N48" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="9">
@@ -1309,30 +1309,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L28" workbookViewId="0">
-      <selection activeCell="S63" sqref="S63"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2474,7 +2470,7 @@
         <v>-0.13692992844722751</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2509,7 +2505,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2538,7 +2534,7 @@
         <v>206.94880480000029</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2576,7 +2572,7 @@
         <v>-0.1020398729201316</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2614,7 +2610,7 @@
         <v>0.35192020100269561</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2649,291 +2645,310 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="E43" s="4" t="s">
+    <row r="40" spans="1:16">
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="D41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="F44" t="s">
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="E42" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
+      <c r="F42" t="s">
         <v>17</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G42" t="s">
         <v>19</v>
       </c>
-      <c r="I44" t="s">
+      <c r="H42" t="s">
         <v>21</v>
       </c>
-      <c r="J44" t="s">
+      <c r="I42" t="s">
         <v>23</v>
       </c>
-      <c r="K44" t="s">
+      <c r="J42" t="s">
         <v>25</v>
       </c>
-      <c r="L44" t="s">
+      <c r="K42" t="s">
         <v>27</v>
       </c>
-      <c r="M44" t="s">
+      <c r="L42" t="s">
         <v>29</v>
       </c>
-      <c r="N44" t="s">
+      <c r="M42" t="s">
         <v>31</v>
       </c>
-      <c r="O44" t="s">
+      <c r="N42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
-      <c r="E45" s="4" t="s">
+    <row r="43" spans="1:16">
+      <c r="D43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E43" t="s">
         <v>12</v>
       </c>
-      <c r="G45" t="s">
+      <c r="F43" t="s">
         <v>18</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G43" t="s">
         <v>20</v>
       </c>
-      <c r="I45" t="s">
+      <c r="H43" t="s">
         <v>22</v>
       </c>
-      <c r="J45" t="s">
+      <c r="I43" t="s">
         <v>24</v>
       </c>
-      <c r="K45" t="s">
+      <c r="J43" t="s">
         <v>26</v>
       </c>
-      <c r="L45" t="s">
+      <c r="K43" t="s">
         <v>28</v>
       </c>
-      <c r="M45" t="s">
+      <c r="L43" t="s">
         <v>30</v>
       </c>
-      <c r="N45" t="s">
+      <c r="M43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
-      <c r="E46">
+    <row r="44" spans="1:16">
+      <c r="D44">
         <v>202303</v>
       </c>
+      <c r="E44" s="5">
+        <v>3683.5576151182772</v>
+      </c>
+      <c r="F44" s="5">
+        <v>6603.1407960579409</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1620.2413118339</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2983.8884679344001</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2063.3163032843772</v>
+      </c>
+      <c r="J44" s="5">
+        <v>3619.2523281235408</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1401.4027599187259</v>
+      </c>
+      <c r="L44" s="5">
+        <v>272.12882236000002</v>
+      </c>
+      <c r="M44" s="5">
+        <v>2294.9488047999998</v>
+      </c>
+      <c r="N44" s="5">
+        <v>24541.877209431157</v>
+      </c>
+      <c r="P44" s="5">
+        <f>SUM(G44:L44)</f>
+        <v>11960.229993454945</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="D45">
+        <v>202304</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3584.677321096673</v>
+      </c>
+      <c r="F45" s="5">
+        <v>6654.1144866892246</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1569.5755583350001</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2960.5544318901998</v>
+      </c>
+      <c r="I45" s="5">
+        <v>2015.1017627616729</v>
+      </c>
+      <c r="J45" s="5">
+        <v>3693.5600547990248</v>
+      </c>
+      <c r="K45" s="5">
+        <v>1405.5157076754199</v>
+      </c>
+      <c r="L45" s="5">
+        <v>273.69532186999999</v>
+      </c>
+      <c r="M45" s="5">
+        <v>2060.7725203999998</v>
+      </c>
+      <c r="N45" s="5">
+        <v>24217.567165517212</v>
+      </c>
+      <c r="P45" s="5">
+        <f t="shared" ref="P45:P48" si="0">SUM(G45:L45)</f>
+        <v>11918.002837331318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="D46">
+        <v>202305</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3733.7419672828282</v>
+      </c>
       <c r="F46" s="5">
-        <v>3683.5576151182772</v>
+        <v>6582.934700454919</v>
       </c>
       <c r="G46" s="5">
-        <v>6603.1407960579409</v>
+        <v>1610.2809285173</v>
       </c>
       <c r="H46" s="5">
-        <v>1620.2413118339</v>
+        <v>2953.0692293286002</v>
       </c>
       <c r="I46" s="5">
-        <v>2983.8884679344001</v>
+        <v>2123.461038765528</v>
       </c>
       <c r="J46" s="5">
-        <v>2063.3163032843772</v>
+        <v>3629.8654711263189</v>
       </c>
       <c r="K46" s="5">
-        <v>3619.2523281235408</v>
+        <v>1272.3013203273899</v>
       </c>
       <c r="L46" s="5">
-        <v>1401.4027599187259</v>
+        <v>236.21824103</v>
       </c>
       <c r="M46" s="5">
-        <v>272.12882236000002</v>
+        <v>2786</v>
       </c>
       <c r="N46" s="5">
-        <v>2294.9488047999998</v>
-      </c>
-      <c r="O46" s="5">
-        <v>24541.877209431157</v>
-      </c>
-      <c r="Q46" s="5">
-        <f>SUM(H46:M46)</f>
-        <v>11960.229993454945</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="E47">
-        <v>202304</v>
-      </c>
-      <c r="F47" s="5">
-        <v>3584.677321096673</v>
-      </c>
-      <c r="G47" s="5">
-        <v>6654.1144866892246</v>
-      </c>
-      <c r="H47" s="5">
-        <v>1569.5755583350001</v>
-      </c>
-      <c r="I47" s="5">
-        <v>2960.5544318901998</v>
-      </c>
-      <c r="J47" s="5">
-        <v>2015.1017627616729</v>
-      </c>
-      <c r="K47" s="5">
-        <v>3693.5600547990248</v>
-      </c>
-      <c r="L47" s="5">
-        <v>1405.5157076754199</v>
-      </c>
-      <c r="M47" s="5">
-        <v>273.69532186999999</v>
-      </c>
-      <c r="N47" s="5">
-        <v>2060.7725203999998</v>
-      </c>
-      <c r="O47" s="5">
-        <v>24217.567165517212</v>
-      </c>
-      <c r="Q47" s="5">
-        <f t="shared" ref="Q47:Q50" si="0">SUM(H47:M47)</f>
-        <v>11918.002837331318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="E48">
-        <v>202305</v>
-      </c>
-      <c r="F48" s="5">
-        <v>3733.7419672828282</v>
-      </c>
-      <c r="G48" s="5">
-        <v>6582.934700454919</v>
-      </c>
-      <c r="H48" s="5">
-        <v>1610.2809285173</v>
-      </c>
-      <c r="I48" s="5">
-        <v>2953.0692293286002</v>
-      </c>
-      <c r="J48" s="5">
-        <v>2123.461038765528</v>
-      </c>
-      <c r="K48" s="5">
-        <v>3629.8654711263189</v>
-      </c>
-      <c r="L48" s="5">
-        <v>1272.3013203273899</v>
-      </c>
-      <c r="M48" s="5">
-        <v>236.21824103</v>
-      </c>
-      <c r="N48" s="5">
-        <v>2786</v>
-      </c>
-      <c r="O48" s="5">
         <v>24927.872896832887</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="P46" s="5">
         <f t="shared" si="0"/>
         <v>11825.196229095136</v>
       </c>
     </row>
-    <row r="49" spans="5:20">
-      <c r="E49">
+    <row r="47" spans="1:16">
+      <c r="D47">
         <v>202306</v>
       </c>
-      <c r="F49" s="5">
+      <c r="E47" s="5">
         <v>607.32827681279207</v>
       </c>
-      <c r="G49" s="5">
+      <c r="F47" s="5">
         <v>850.16242670750012</v>
       </c>
-      <c r="H49" s="5">
+      <c r="G47" s="5">
         <v>285.82672233670002</v>
       </c>
-      <c r="I49" s="5">
+      <c r="H47" s="5">
         <v>547.57502634280002</v>
       </c>
-      <c r="J49" s="5">
+      <c r="I47" s="5">
         <v>321.50155447609211</v>
       </c>
-      <c r="K49" s="5">
+      <c r="J47" s="5">
         <v>591.81926751000015</v>
       </c>
-      <c r="L49" s="5">
+      <c r="K47" s="5">
         <v>0</v>
       </c>
-      <c r="M49" s="5">
+      <c r="L47" s="5">
         <v>0</v>
       </c>
-      <c r="N49" s="5">
+      <c r="M47" s="5">
         <v>0</v>
       </c>
-      <c r="O49" s="5">
+      <c r="N47" s="5">
         <v>3204.213274185885</v>
       </c>
-      <c r="Q49" s="5">
+      <c r="P47" s="5">
         <f t="shared" si="0"/>
         <v>1746.7225706655925</v>
       </c>
     </row>
-    <row r="50" spans="5:20">
-      <c r="E50" t="s">
+    <row r="48" spans="1:16">
+      <c r="D48" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="5">
+      <c r="E48" s="5">
         <v>11609.305180310572</v>
       </c>
-      <c r="G50" s="5">
+      <c r="F48" s="5">
         <v>20690.352409909585</v>
       </c>
-      <c r="H50" s="5">
+      <c r="G48" s="5">
         <v>5085.9245210229001</v>
       </c>
-      <c r="I50" s="5">
+      <c r="H48" s="5">
         <v>9445.0871554960013</v>
       </c>
-      <c r="J50" s="5">
+      <c r="I48" s="5">
         <v>6523.3806592876699</v>
       </c>
-      <c r="K50" s="5">
+      <c r="J48" s="5">
         <v>11534.497121558885</v>
       </c>
-      <c r="L50" s="5">
+      <c r="K48" s="5">
         <v>4079.219787921536</v>
       </c>
-      <c r="M50" s="5">
+      <c r="L48" s="5">
         <v>782.04238525999995</v>
       </c>
-      <c r="N50" s="5">
+      <c r="M48" s="5">
         <v>7141.7213252000001</v>
       </c>
-      <c r="O50" s="5">
+      <c r="N48" s="5">
         <v>76891.530545967136</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="P48" s="6">
         <f t="shared" si="0"/>
         <v>37450.151630546992</v>
       </c>
     </row>
-    <row r="51" spans="5:20">
+    <row r="49" spans="4:19">
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="4:19">
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="4:19">
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
@@ -2942,8 +2957,16 @@
       <c r="K51"/>
       <c r="L51"/>
     </row>
-    <row r="52" spans="5:20">
-      <c r="F52"/>
+    <row r="52" spans="4:19">
+      <c r="D52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
@@ -2951,317 +2974,287 @@
       <c r="K52"/>
       <c r="L52"/>
     </row>
-    <row r="53" spans="5:20">
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-    </row>
-    <row r="54" spans="5:20">
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-    </row>
-    <row r="55" spans="5:20">
-      <c r="E55" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-    </row>
-    <row r="56" spans="5:20">
-      <c r="F56" t="s">
+    <row r="53" spans="4:19">
+      <c r="E53" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
+      <c r="F53" t="s">
         <v>17</v>
       </c>
-      <c r="H56" t="s">
+      <c r="G53" t="s">
         <v>19</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H53" t="s">
         <v>21</v>
       </c>
-      <c r="J56" t="s">
+      <c r="I53" t="s">
         <v>23</v>
       </c>
-      <c r="K56" t="s">
+      <c r="J53" t="s">
         <v>25</v>
       </c>
-      <c r="L56" t="s">
+      <c r="K53" t="s">
         <v>27</v>
       </c>
-      <c r="M56" t="s">
+      <c r="L53" t="s">
         <v>29</v>
       </c>
-      <c r="N56" t="s">
+      <c r="M53" t="s">
         <v>31</v>
       </c>
-      <c r="O56" t="s">
+      <c r="N53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="5:20">
-      <c r="E57" s="4" t="s">
+    <row r="54" spans="4:19">
+      <c r="D54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F57" t="s">
+      <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="G57" t="s">
+      <c r="F54" t="s">
         <v>18</v>
       </c>
-      <c r="H57" t="s">
+      <c r="G54" t="s">
         <v>20</v>
       </c>
-      <c r="I57" t="s">
+      <c r="H54" t="s">
         <v>22</v>
       </c>
-      <c r="J57" t="s">
+      <c r="I54" t="s">
         <v>24</v>
       </c>
-      <c r="K57" t="s">
+      <c r="J54" t="s">
         <v>26</v>
       </c>
-      <c r="L57" t="s">
+      <c r="K54" t="s">
         <v>28</v>
       </c>
-      <c r="M57" t="s">
+      <c r="L54" t="s">
         <v>30</v>
       </c>
-      <c r="N57" t="s">
+      <c r="M54" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="5:20">
-      <c r="E58">
+    <row r="55" spans="4:19">
+      <c r="D55">
         <v>202303</v>
       </c>
-      <c r="F58" s="5">
+      <c r="E55" s="5">
         <v>3697.8374143118031</v>
       </c>
-      <c r="G58" s="5">
+      <c r="F55" s="5">
         <v>6662.4291928685598</v>
       </c>
-      <c r="H58" s="5">
+      <c r="G55" s="5">
         <v>1655.4024104018019</v>
       </c>
-      <c r="I58" s="5">
+      <c r="H55" s="5">
         <v>3030.4580906185588</v>
       </c>
-      <c r="J58" s="5">
+      <c r="I55" s="5">
         <v>2042.4350039100009</v>
       </c>
-      <c r="K58" s="5">
+      <c r="J55" s="5">
         <v>3631.971102250001</v>
       </c>
-      <c r="L58" s="5">
+      <c r="K55" s="5">
         <v>1497.663310890001</v>
       </c>
-      <c r="M58" s="5">
+      <c r="L55" s="5">
         <v>413.61634573000032</v>
       </c>
-      <c r="N58" s="5">
+      <c r="M55" s="5">
         <v>2088</v>
       </c>
-      <c r="O58" s="5">
+      <c r="N55" s="5">
         <v>24719.812870980728</v>
       </c>
-      <c r="Q58" s="5">
-        <f>SUM(H58:M58)</f>
+      <c r="P55" s="5">
+        <f>SUM(G55:L55)</f>
         <v>12271.546263800365</v>
       </c>
     </row>
-    <row r="59" spans="5:20">
-      <c r="E59">
+    <row r="56" spans="4:19">
+      <c r="D56">
         <v>202304</v>
       </c>
-      <c r="F59" s="5">
+      <c r="E56" s="5">
         <v>3639.3767399000408</v>
       </c>
-      <c r="G59" s="5">
+      <c r="F56" s="5">
         <v>6672.6856941054866</v>
       </c>
-      <c r="H59" s="5">
+      <c r="G56" s="5">
         <v>1590.276264190041</v>
       </c>
-      <c r="I59" s="5">
+      <c r="H56" s="5">
         <v>3030.706949905486</v>
       </c>
-      <c r="J59" s="5">
+      <c r="I56" s="5">
         <v>2049.10047571</v>
       </c>
-      <c r="K59" s="5">
+      <c r="J56" s="5">
         <v>3641.9787442000011</v>
       </c>
-      <c r="L59" s="5">
+      <c r="K56" s="5">
         <v>1506.8321525900001</v>
       </c>
-      <c r="M59" s="5">
+      <c r="L56" s="5">
         <v>413.61634572999998</v>
       </c>
-      <c r="N59" s="5">
+      <c r="M56" s="5">
         <v>2140</v>
       </c>
-      <c r="O59" s="5">
+      <c r="N56" s="5">
         <v>24684.573366331057</v>
       </c>
-      <c r="Q59" s="5">
-        <f t="shared" ref="Q59:Q62" si="1">SUM(H59:M59)</f>
+      <c r="P56" s="5">
+        <f t="shared" ref="P56:P59" si="1">SUM(G56:L56)</f>
         <v>12232.510932325529</v>
       </c>
     </row>
-    <row r="60" spans="5:20">
-      <c r="E60">
+    <row r="57" spans="4:19">
+      <c r="D57">
         <v>202305</v>
       </c>
-      <c r="F60" s="5">
+      <c r="E57" s="5">
         <v>3685.578479864042</v>
       </c>
-      <c r="G60" s="5">
+      <c r="F57" s="5">
         <v>6628.0574848573087</v>
       </c>
-      <c r="H60" s="5">
+      <c r="G57" s="5">
         <v>1629.597517134041</v>
       </c>
-      <c r="I60" s="5">
+      <c r="H57" s="5">
         <v>2976.1573414773079</v>
       </c>
-      <c r="J60" s="5">
+      <c r="I57" s="5">
         <v>2055.980962730001</v>
       </c>
-      <c r="K60" s="5">
+      <c r="J57" s="5">
         <v>3651.9001433799999</v>
       </c>
-      <c r="L60" s="5">
+      <c r="K57" s="5">
         <v>1516.000994290001</v>
       </c>
-      <c r="M60" s="5">
+      <c r="L57" s="5">
         <v>413.61634572999998</v>
       </c>
-      <c r="N60" s="5">
+      <c r="M57" s="5">
         <v>2515</v>
       </c>
-      <c r="O60" s="5">
+      <c r="N57" s="5">
         <v>25071.889269462699</v>
       </c>
-      <c r="Q60" s="5">
+      <c r="P57" s="5">
         <f t="shared" si="1"/>
         <v>12243.253304741353</v>
       </c>
-      <c r="S60" t="s">
+      <c r="R57" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="5:20">
-      <c r="E61">
+    <row r="58" spans="4:19">
+      <c r="D58">
         <v>202306</v>
       </c>
-      <c r="F61" s="5">
+      <c r="E58" s="5">
         <v>629.12691655750746</v>
       </c>
-      <c r="G61" s="5">
+      <c r="F58" s="5">
         <v>894.67497969978854</v>
       </c>
-      <c r="H61" s="5">
+      <c r="G58" s="5">
         <v>285.31667493084097</v>
       </c>
-      <c r="I61" s="5">
+      <c r="H58" s="5">
         <v>575.30281342170804</v>
       </c>
-      <c r="J61" s="5">
+      <c r="I58" s="5">
         <v>343.81024162666648</v>
       </c>
-      <c r="K61" s="5">
+      <c r="J58" s="5">
         <v>614.7948264819737</v>
       </c>
-      <c r="L61" s="5">
+      <c r="K58" s="5">
         <v>0</v>
       </c>
-      <c r="M61" s="5">
+      <c r="L58" s="5">
         <v>0</v>
       </c>
-      <c r="N61" s="5">
+      <c r="M58" s="5">
         <v>0</v>
       </c>
-      <c r="O61" s="5">
+      <c r="N58" s="5">
         <v>3343.0264527184854</v>
       </c>
-      <c r="Q61" s="5">
+      <c r="P58" s="5">
         <f t="shared" si="1"/>
         <v>1819.2245564611894</v>
       </c>
-      <c r="S61" s="3">
+      <c r="R58" s="3">
         <v>278</v>
       </c>
-      <c r="T61" s="5">
-        <f>Q61+S61</f>
+      <c r="S58" s="5">
+        <f>P58+R58</f>
         <v>2097.2245564611894</v>
       </c>
     </row>
-    <row r="62" spans="5:20">
-      <c r="E62" t="s">
+    <row r="59" spans="4:19">
+      <c r="D59" t="s">
         <v>33</v>
       </c>
-      <c r="F62" s="5">
+      <c r="E59" s="5">
         <v>11651.919550633393</v>
       </c>
-      <c r="G62" s="5">
+      <c r="F59" s="5">
         <v>20857.847351531145</v>
       </c>
-      <c r="H62" s="5">
+      <c r="G59" s="5">
         <v>5160.5928666567252</v>
       </c>
-      <c r="I62" s="5">
+      <c r="H59" s="5">
         <v>9612.6251954230611</v>
       </c>
-      <c r="J62" s="5">
+      <c r="I59" s="5">
         <v>6491.3266839766684</v>
       </c>
-      <c r="K62" s="5">
+      <c r="J59" s="5">
         <v>11540.644816311975</v>
       </c>
-      <c r="L62" s="5">
+      <c r="K59" s="5">
         <v>4520.4964577700021</v>
       </c>
-      <c r="M62" s="5">
+      <c r="L59" s="5">
         <v>1240.8490371900002</v>
       </c>
-      <c r="N62" s="5">
+      <c r="M59" s="5">
         <v>6743</v>
       </c>
-      <c r="O62" s="5">
+      <c r="N59" s="5">
         <v>77819.301959492979</v>
       </c>
-      <c r="Q62" s="6">
+      <c r="P59" s="6">
         <f t="shared" si="1"/>
         <v>38566.535057328423</v>
       </c>
     </row>
-    <row r="63" spans="5:20">
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
+    <row r="60" spans="4:19">
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="4:19">
+      <c r="E61" s="3"/>
+      <c r="L61"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
